--- a/data/示例数据.xlsx
+++ b/data/示例数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xyps\project\Java\codeGen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D3946-457C-4889-BE3A-8FBF190020AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0CC6A1-2A82-4F3F-93A8-1E94D410F182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{556638E1-EA19-4009-8A0C-C3435DC4D8E4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>dept</t>
   </si>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>乔东伟2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,19 +544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25CEA9E-F1CB-4AF0-A879-41FFAAD1CED2}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="18" max="18" width="13.875" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +624,14 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -684,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -755,5 +770,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>